--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\govin\OneDrive\Desktop\sem7-project-phase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0954E143-B1CA-4181-B5BD-CBC68E07C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CAFF1-905F-4311-975A-D0CBF3107A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8296D3C-80EF-4C75-AD60-B8D8D5561FF3}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{D8296D3C-80EF-4C75-AD60-B8D8D5561FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648DEB16-5FF0-42BB-8C86-75F952995D95}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +485,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{1319621B-B586-4738-AC40-6A4A9ABE16C5}"/>
@@ -492,6 +540,7 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{01CA154D-DE0E-44C6-A3EF-5BE9174C2DED}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{15FF6341-30E2-4EB6-ABAD-B98A8AA639D1}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{5C77E62F-1DB4-4129-A0FA-4B4266192E39}"/>
+    <hyperlink ref="A7:A12" r:id="rId6" display="vtuppalwad@gmail.com" xr:uid="{4C7A66BE-A203-4918-BCB2-370BB677BE0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
